--- a/Proyecto viejo/Capturas tp2.xlsx
+++ b/Proyecto viejo/Capturas tp2.xlsx
@@ -16,22 +16,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>editar</t>
+  </si>
+  <si>
+    <t>    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,8 +69,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1391,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1424,12 +1441,107 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="F1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.15625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:6">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="6:6">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="6:6">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="6:6">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="6:6">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="6:6">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="6:6">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="6:6">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="6:6">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="6:6">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="6:6">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="6:6">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="6:6">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
